--- a/doc/tablas.xlsx
+++ b/doc/tablas.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="14115" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="16545" windowHeight="5445"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>Clientes</t>
   </si>
@@ -115,13 +116,19 @@
   </si>
   <si>
     <t>REDO INITIAL.MV.DB</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>not null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +141,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,9 +171,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,6 +522,9 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -542,9 +561,6 @@
       <c r="C6">
         <v>100</v>
       </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
@@ -559,9 +575,6 @@
       <c r="C7">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
       <c r="G7" t="s">
         <v>32</v>
       </c>
@@ -576,9 +589,6 @@
       <c r="C8">
         <v>50</v>
       </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
       <c r="G8" t="s">
         <v>32</v>
       </c>
@@ -593,9 +603,6 @@
       <c r="C9">
         <v>100</v>
       </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -612,6 +619,9 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -623,6 +633,9 @@
       <c r="D13" t="s">
         <v>21</v>
       </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -631,6 +644,9 @@
       <c r="B14" t="s">
         <v>24</v>
       </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -639,6 +655,9 @@
       <c r="B15" t="s">
         <v>24</v>
       </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -650,21 +669,27 @@
       <c r="C16">
         <v>20000</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -674,24 +699,33 @@
       <c r="C20">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -701,6 +735,12 @@
       <c r="D23" t="s">
         <v>18</v>
       </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
